--- a/source/leader_table.xlsx
+++ b/source/leader_table.xlsx
@@ -357,7 +357,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="60" zoomScaleSheetLayoutView="100">
       <selection activeCell="A1" sqref="A1"/>
@@ -372,16 +372,36 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>sasha</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>danya</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>ignat</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B4" t="n">
         <v>12</v>
       </c>
     </row>

--- a/source/leader_table.xlsx
+++ b/source/leader_table.xlsx
@@ -357,7 +357,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="60" zoomScaleSheetLayoutView="100">
       <selection activeCell="A1" sqref="A1"/>
@@ -405,6 +405,7 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
